--- a/data/DIGTimeline_data.xlsx
+++ b/data/DIGTimeline_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -51,22 +51,198 @@
     <t>https://doi.org/10.17895/ices.pub.24573632.v1</t>
   </si>
   <si>
+    <t>1988/01/01</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>In 1988 Carlberg and F&amp;oslash;yn wrote an ICES discussion paper titled 'Stimulated Growth and Safeguarding of the ICES Oceanographic Data Bank. A Discussion Paper'.  'During a number of years there has been a consent to build up and increase the ICES oceanographic data base to the benefit of the member countries.'</t>
+  </si>
+  <si>
+    <t>1994/05/17</t>
+  </si>
+  <si>
+    <t>Status, rules and procedures - follow-up</t>
+  </si>
+  <si>
+    <t>In 1994 ICES (CM 1994 Del-10) summarised the 'Status, and Rules and Procedures governing Oceanographic, Environmental, and Fisheries data bases maintained at the ICES Secretariat'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A follow-up paper (CM 1994 Follow up to Del: 10) was also produced to '... inform the Committee about the procedures set up and used by the Secretariat for dealing with requests for access to the Fisheries data bases described in Del: 10 in the period since the Mid-term meeting.'
+</t>
+  </si>
+  <si>
+    <t>1994/09/01</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.7552</t>
+  </si>
+  <si>
+    <t>In the 1994 ICES Annual Report 'With respect to the matter of rules and procedures governing data bases maintained by the Secretariat, there was consensus that the Council adopt the proposals put forward in Doc. C.M. 1994/Del:10 and the supplementary follow-up paper.'</t>
+  </si>
+  <si>
+    <t>Proposals adopted</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/sites/pub/CM%20Doccuments/2001/C/C0901.pdf</t>
+  </si>
+  <si>
+    <t>WGMDM - status of data policy</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.19266134.v1</t>
+  </si>
+  <si>
+    <t>In 2004 SGMID said 'ICES last reviewed its data policy in 1994 and prepared a base document for ICES data policy (ICES C.M. 1994/Del: 10). Since 1994 new policies have been added, but does [sic] not always provide information why access to data is regulated.'</t>
+  </si>
+  <si>
+    <t>SGMID - status of data policy</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.24573176.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2005 the Bureau Working Group Data Development Project (BWGDDP C.M. 2005/Del.04/05/01) said 'Timely, open access to data will add value and is thus crucial for the usability of the portal. ICES must develop a clear strategy on how to access distributed data. This involves policy as well as technical considerations. First-of-all, ICES must update its data policy, which is more than a decade old and no longer fully reflects the way the scientific community handles data. A proposal for updating the ICES data policy will be drafted by SGMID following its meeting in April, 2005. The policy must acknowledge that ICES is the repository and/or distributor of the data, but not the owner with whom data rights ultimately remain. The policy may require negotiations with data owners and, since there are variable proprietary periods, it will undoubtedly presume a complex, secure system for administrating access.'
+</t>
+  </si>
+  <si>
+    <t>BWGDDP</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.19267004.v1</t>
+  </si>
+  <si>
+    <t>SGMID - drafting a new data policy</t>
+  </si>
+  <si>
+    <t>In 2005 BWGDDP proposed a data policy based on the SGMID proposal (C.M. 2005/Del.04/05/03). 'The objective of this policy is to serve the scientific community, and facilitate the production of advice and status reports by stating the conditions for data submission, access and use.'</t>
+  </si>
+  <si>
+    <t>BWGDDP - propose new data policy</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.7440</t>
+  </si>
+  <si>
+    <t>ICES Delegates adpot new data policy</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.8729</t>
+  </si>
+  <si>
+    <t>In 2012 WGDIM proposed a new Data Policy to resolve the following deficiencies in the existing policy: 'Implication of CCs [Creative Commons Licenses]. Separate data policies for Commercial Catch Data. Redistribution rights. Data quality statement and responsibilities. Data security statement. Glossary of terms'</t>
+  </si>
+  <si>
+    <t>WGDIM propose new data policy</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.24564820.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2012 (CM_2012_Del-02.1.1_SCICOM_Report) the revised Data Policy is reviewed by ACOM and SCICOM before the policy is agreed to be published as the Data Policy (2012 update). </t>
+  </si>
+  <si>
+    <t>2012/10/24</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.8353</t>
+  </si>
+  <si>
+    <t>In 2016 DIG reviewed and proposed an update to the Data Policy.</t>
+  </si>
+  <si>
+    <t>DIG proposed data policy update</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.8224</t>
+  </si>
+  <si>
+    <t>In 2025 DIG updated the definitions of 'Data Provider' and 'Data Owner' and added 'Data ownership does not transfer to ICES' statement for clarification.  These changes were reviewed and accepted by SCICOM at their March 2025 meeting.</t>
+  </si>
+  <si>
+    <t>1994/09/22</t>
+  </si>
+  <si>
+    <t>2001/04/02</t>
+  </si>
+  <si>
+    <t>2004/03/31</t>
+  </si>
+  <si>
+    <t>2005/09/01</t>
+  </si>
+  <si>
+    <t>2005/04/11</t>
+  </si>
+  <si>
+    <t>2005/10/19</t>
+  </si>
+  <si>
+    <t>2012/05/23</t>
+  </si>
+  <si>
+    <t>2016/05/23</t>
+  </si>
+  <si>
+    <t>2021/05/18</t>
+  </si>
+  <si>
+    <t>2025/03/01</t>
+  </si>
+  <si>
+    <t>From the 2001 WGMDM report: 'Data policy was mentioned. H. Dooley explained that the present data policy was actually from an ICES paper by Stig Carlberg (Sweden) intended to stimulate use of the ICES oceanographic databank. He stressed that free and open exchange of data is encouraged, but restrictions placed on the data by their collectors are respected.'</t>
+  </si>
+  <si>
+    <t>In 2005 SGMID said 'It is widely recognised that ICES has to update its data policy, which is more than a decade old and doesn't reflect the way the scientific community is presently handling data. None of the key groups subject to the data policy - the ICES Data Centre, data contributors, and expert groups/external data users - is content with the current policy and the procedure to access data. SGMID was asked to provide a draft new ICES data policy for further consideration by the ICES community, as one of the main goals for its 2005 meeting.'</t>
+  </si>
+  <si>
+    <t>In 2005 the ICES Delegates ('Report on Update of 1994 Data Policy')  said 'In response to comments about data ownership and access, the BWGDDP Chair said that the global trend is to have data available in the public domain. Although agreeing that we must accept reality and protect the rights of data collectors/submitters, he said that we must also move to accommodate the wider interests. Following discussion, Delegates adopted the Data Policy, with some re-arrangement of words.'</t>
+  </si>
+  <si>
+    <t>In 2021 DIG proposed splitting the Data Policy into a combination of Data Policy and Data Licenses. '... a policy typically sets out a set of principles to guide decisions or achieve outcomes, while a license is a permission to do, use, or own something. Currently the ICES Data Policy encompasses both aspects. [...] DIG therefore proposed to separate out the license and data policy aspects for clarity, and better alignment with current practises elsewhere.'  The revised policy was adopted by ICES Council.</t>
+  </si>
+  <si>
+    <t>ICES Delegates adopt new data policy</t>
+  </si>
+  <si>
+    <t>Working Group on Data and Information Management</t>
+  </si>
+  <si>
+    <t>Data and Information Group</t>
+  </si>
+  <si>
+    <t>Study Group on Management of Integrated Data</t>
+  </si>
+  <si>
+    <t>2004/01/01</t>
+  </si>
+  <si>
+    <t>2007/01/01</t>
+  </si>
+  <si>
+    <t>2013/01/01</t>
+  </si>
+  <si>
     <t>1994/01/01</t>
   </si>
   <si>
-    <t>1988/01/01</t>
-  </si>
-  <si>
-    <t>In 1994 ICES summarised the 'Status, and Rules and Procedures governing Oceanographic, Environmental, and Fisheries data bases maintained at the ICES Secretariat'</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>In 1988 Carlberg and F&amp;oslash;yn wrote an ICES discussion paper titled 'Stimulated Growth and Safeguarding of the ICES Oceanographic Data Bank. A Discussion Paper'.  'During a number of years there has been a consent to build up and increase the ICES oceanographic data base to the benefit of the member countries.'</t>
+    <t>Working Group on Marine Data Management (WGMDM) formed</t>
+  </si>
+  <si>
+    <t>Working Group on Marine Data Management</t>
+  </si>
+  <si>
+    <t>Study Group on Management of Integrated Data (SGMID) formed</t>
+  </si>
+  <si>
+    <t>WGMDM and SGDIM merge into Working Group on Data and Information Management (WGDIM)</t>
+  </si>
+  <si>
+    <t>WGDIM changes to Data and Information Group (DIG)</t>
   </si>
 </sst>
 </file>
@@ -550,10 +726,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -875,21 +1054,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
     <col min="3" max="3" width="57.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5546875" style="1" customWidth="1"/>
     <col min="5" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -897,10 +1076,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -912,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,19 +1099,20 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -940,17 +1120,363 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DIGTimeline_data.xlsx
+++ b/data/DIGTimeline_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -60,9 +60,6 @@
     <t>link</t>
   </si>
   <si>
-    <t>In 1988 Carlberg and F&amp;oslash;yn wrote an ICES discussion paper titled 'Stimulated Growth and Safeguarding of the ICES Oceanographic Data Bank. A Discussion Paper'.  'During a number of years there has been a consent to build up and increase the ICES oceanographic data base to the benefit of the member countries.'</t>
-  </si>
-  <si>
     <t>1994/05/17</t>
   </si>
   <si>
@@ -72,10 +69,6 @@
     <t>In 1994 ICES (CM 1994 Del-10) summarised the 'Status, and Rules and Procedures governing Oceanographic, Environmental, and Fisheries data bases maintained at the ICES Secretariat'</t>
   </si>
   <si>
-    <t xml:space="preserve">A follow-up paper (CM 1994 Follow up to Del: 10) was also produced to '... inform the Committee about the procedures set up and used by the Secretariat for dealing with requests for access to the Fisheries data bases described in Del: 10 in the period since the Mid-term meeting.'
-</t>
-  </si>
-  <si>
     <t>1994/09/01</t>
   </si>
   <si>
@@ -106,10 +99,6 @@
     <t>https://doi.org/10.17895/ices.pub.24573176.v1</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2005 the Bureau Working Group Data Development Project (BWGDDP C.M. 2005/Del.04/05/01) said 'Timely, open access to data will add value and is thus crucial for the usability of the portal. ICES must develop a clear strategy on how to access distributed data. This involves policy as well as technical considerations. First-of-all, ICES must update its data policy, which is more than a decade old and no longer fully reflects the way the scientific community handles data. A proposal for updating the ICES data policy will be drafted by SGMID following its meeting in April, 2005. The policy must acknowledge that ICES is the repository and/or distributor of the data, but not the owner with whom data rights ultimately remain. The policy may require negotiations with data owners and, since there are variable proprietary periods, it will undoubtedly presume a complex, secure system for administrating access.'
-</t>
-  </si>
-  <si>
     <t>BWGDDP</t>
   </si>
   <si>
@@ -143,9 +132,6 @@
     <t>https://doi.org/10.17895/ices.pub.24564820.v1</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2012 (CM_2012_Del-02.1.1_SCICOM_Report) the revised Data Policy is reviewed by ACOM and SCICOM before the policy is agreed to be published as the Data Policy (2012 update). </t>
-  </si>
-  <si>
     <t>2012/10/24</t>
   </si>
   <si>
@@ -161,9 +147,6 @@
     <t>https://doi.org/10.17895/ices.pub.8224</t>
   </si>
   <si>
-    <t>In 2025 DIG updated the definitions of 'Data Provider' and 'Data Owner' and added 'Data ownership does not transfer to ICES' statement for clarification.  These changes were reviewed and accepted by SCICOM at their March 2025 meeting.</t>
-  </si>
-  <si>
     <t>1994/09/22</t>
   </si>
   <si>
@@ -200,12 +183,6 @@
     <t>In 2005 SGMID said 'It is widely recognised that ICES has to update its data policy, which is more than a decade old and doesn't reflect the way the scientific community is presently handling data. None of the key groups subject to the data policy - the ICES Data Centre, data contributors, and expert groups/external data users - is content with the current policy and the procedure to access data. SGMID was asked to provide a draft new ICES data policy for further consideration by the ICES community, as one of the main goals for its 2005 meeting.'</t>
   </si>
   <si>
-    <t>In 2005 the ICES Delegates ('Report on Update of 1994 Data Policy')  said 'In response to comments about data ownership and access, the BWGDDP Chair said that the global trend is to have data available in the public domain. Although agreeing that we must accept reality and protect the rights of data collectors/submitters, he said that we must also move to accommodate the wider interests. Following discussion, Delegates adopted the Data Policy, with some re-arrangement of words.'</t>
-  </si>
-  <si>
-    <t>In 2021 DIG proposed splitting the Data Policy into a combination of Data Policy and Data Licenses. '... a policy typically sets out a set of principles to guide decisions or achieve outcomes, while a license is a permission to do, use, or own something. Currently the ICES Data Policy encompasses both aspects. [...] DIG therefore proposed to separate out the license and data policy aspects for clarity, and better alignment with current practises elsewhere.'  The revised policy was adopted by ICES Council.</t>
-  </si>
-  <si>
     <t>ICES Delegates adopt new data policy</t>
   </si>
   <si>
@@ -243,6 +220,126 @@
   </si>
   <si>
     <t>WGDIM changes to Data and Information Group (DIG)</t>
+  </si>
+  <si>
+    <t>In 1988 Carlberg and F&amp;oslash;yn wrote an ICES discussion paper titled 'Stimulated Growth and Safeguarding of the ICES Oceanographic Data Bank. A Discussion Paper'. 'During a number of years there has been a consent to build up and increase the ICES oceanographic data base to the benefit of the member countries.'</t>
+  </si>
+  <si>
+    <t>A follow-up paper (CM 1994 Follow up to Del: 10) was also produced to '... inform the Committee about the procedures set up and used by the Secretariat for dealing with requests for access to the Fisheries data bases described in Del: 10 in the period since the Mid-term meeting.'</t>
+  </si>
+  <si>
+    <t>In 2005 the Bureau Working Group Data Development Project (BWGDDP C.M. 2005/Del.04/05/01) said 'Timely, open access to data will add value and is thus crucial for the usability of the portal. ICES must develop a clear strategy on how to access distributed data. This involves policy as well as technical considerations. First-of-all, ICES must update its data policy, which is more than a decade old and no longer fully reflects the way the scientific community handles data. A proposal for updating the ICES data policy will be drafted by SGMID following its meeting in April, 2005. The policy must acknowledge that ICES is the repository and/or distributor of the data, but not the owner with whom data rights ultimately remain. The policy may require negotiations with data owners and, since there are variable proprietary periods, it will undoubtedly presume a complex, secure system for administrating access.'</t>
+  </si>
+  <si>
+    <t>In 2005 the ICES Delegates ('Report on Update of 1994 Data Policy') said 'In response to comments about data ownership and access, the BWGDDP Chair said that the global trend is to have data available in the public domain. Although agreeing that we must accept reality and protect the rights of data collectors/submitters, he said that we must also move to accommodate the wider interests. Following discussion, Delegates adopted the Data Policy, with some re-arrangement of words.'</t>
+  </si>
+  <si>
+    <t>In 2012 (CM_2012_Del-02.1.1_SCICOM_Report) the revised Data Policy is reviewed by ACOM and SCICOM before the policy is agreed to be published as the Data Policy (2012 update).</t>
+  </si>
+  <si>
+    <t>In 2021 DIG proposed splitting the Data Policy into a combination of Data Policy and Data Licenses. '... a policy typically sets out a set of principles to guide decisions or achieve outcomes, while a license is a permission to do, use, or own something. Currently the ICES Data Policy encompasses both aspects. [...] DIG therefore proposed to separate out the license and data policy aspects for clarity, and better alignment with current practises elsewhere.' The revised policy was adopted by ICES Council.</t>
+  </si>
+  <si>
+    <t>In 2025 DIG updated the definitions of 'Data Provider' and 'Data Owner' and added 'Data ownership does not transfer to ICES' statement for clarification. These changes were reviewed and accepted by SCICOM at their March 2025 meeting.</t>
+  </si>
+  <si>
+    <t>Inaugural meeting of ICES</t>
+  </si>
+  <si>
+    <t>The Inaugural Meeting of ICES was held on 22 July 1902 in Copenhagen. The participants were: Denmark, Finland, Germany, The Netherlands, Norway, Sweden, Russia and United Kingdom.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/about-ICES/who-we-are/Pages/Our-history.aspx</t>
+  </si>
+  <si>
+    <t>ices</t>
+  </si>
+  <si>
+    <t>Belgium joins ICES</t>
+  </si>
+  <si>
+    <t>USA joins ICES</t>
+  </si>
+  <si>
+    <t>France and Portugal join ICES</t>
+  </si>
+  <si>
+    <t>Poland joins ICES</t>
+  </si>
+  <si>
+    <t>Latvia joins ICES</t>
+  </si>
+  <si>
+    <t>Estonia and Spain join ICES</t>
+  </si>
+  <si>
+    <t>Ireland joins ICES</t>
+  </si>
+  <si>
+    <t>Iceland joins ICES</t>
+  </si>
+  <si>
+    <t>ICES Convention</t>
+  </si>
+  <si>
+    <t>A new constitution for ICES</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/about-ICES/who-we-are/Documents/ICES_Convention_1964.pdf</t>
+  </si>
+  <si>
+    <t>Canada joins ICES</t>
+  </si>
+  <si>
+    <t>Copenhagen Declaration</t>
+  </si>
+  <si>
+    <t>Reaffiming commitment to ICES</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/about-ICES/who-we-are/Documents/CPH_declaration_2002.pdf</t>
+  </si>
+  <si>
+    <t>Lithuania joins ICES</t>
+  </si>
+  <si>
+    <t>1902/07/22</t>
+  </si>
+  <si>
+    <t>1903/01/01</t>
+  </si>
+  <si>
+    <t>1912/01/01</t>
+  </si>
+  <si>
+    <t>1920/01/01</t>
+  </si>
+  <si>
+    <t>1922/01/01</t>
+  </si>
+  <si>
+    <t>1923/01/01</t>
+  </si>
+  <si>
+    <t>1924/01/01</t>
+  </si>
+  <si>
+    <t>1925/01/01</t>
+  </si>
+  <si>
+    <t>1938/01/01</t>
+  </si>
+  <si>
+    <t>1964/09/12</t>
+  </si>
+  <si>
+    <t>1967/01/01</t>
+  </si>
+  <si>
+    <t>2002/10/04</t>
+  </si>
+  <si>
+    <t>2006/01/01</t>
   </si>
 </sst>
 </file>
@@ -1054,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1162,8 @@
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
     <col min="3" max="3" width="57.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="43.5546875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1099,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -1120,13 +1218,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
@@ -1138,16 +1236,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
@@ -1159,16 +1257,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
@@ -1180,16 +1278,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
@@ -1201,16 +1299,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
@@ -1222,16 +1320,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
@@ -1243,16 +1341,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
@@ -1264,16 +1362,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
@@ -1285,16 +1383,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1" t="s">
@@ -1306,16 +1404,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1" t="s">
@@ -1327,16 +1425,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
@@ -1348,16 +1446,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1" t="s">
@@ -1369,16 +1467,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1" t="s">
@@ -1390,13 +1488,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
@@ -1408,13 +1506,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1" t="s">
@@ -1426,13 +1524,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1" t="s">
@@ -1444,13 +1542,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1" t="s">
@@ -1462,21 +1560,249 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="21" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="23" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C23"/>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DIGTimeline_data.xlsx
+++ b/data/DIGTimeline_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -51,27 +51,18 @@
     <t>https://doi.org/10.17895/ices.pub.24573632.v1</t>
   </si>
   <si>
-    <t>1988/01/01</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>1994/05/17</t>
-  </si>
-  <si>
     <t>Status, rules and procedures - follow-up</t>
   </si>
   <si>
     <t>In 1994 ICES (CM 1994 Del-10) summarised the 'Status, and Rules and Procedures governing Oceanographic, Environmental, and Fisheries data bases maintained at the ICES Secretariat'</t>
   </si>
   <si>
-    <t>1994/09/01</t>
-  </si>
-  <si>
     <t>https://doi.org/10.17895/ices.pub.7552</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>https://doi.org/10.17895/ices.pub.24564820.v1</t>
   </si>
   <si>
-    <t>2012/10/24</t>
-  </si>
-  <si>
     <t>https://doi.org/10.17895/ices.pub.8353</t>
   </si>
   <si>
@@ -147,36 +135,6 @@
     <t>https://doi.org/10.17895/ices.pub.8224</t>
   </si>
   <si>
-    <t>1994/09/22</t>
-  </si>
-  <si>
-    <t>2001/04/02</t>
-  </si>
-  <si>
-    <t>2004/03/31</t>
-  </si>
-  <si>
-    <t>2005/09/01</t>
-  </si>
-  <si>
-    <t>2005/04/11</t>
-  </si>
-  <si>
-    <t>2005/10/19</t>
-  </si>
-  <si>
-    <t>2012/05/23</t>
-  </si>
-  <si>
-    <t>2016/05/23</t>
-  </si>
-  <si>
-    <t>2021/05/18</t>
-  </si>
-  <si>
-    <t>2025/03/01</t>
-  </si>
-  <si>
     <t>From the 2001 WGMDM report: 'Data policy was mentioned. H. Dooley explained that the present data policy was actually from an ICES paper by Stig Carlberg (Sweden) intended to stimulate use of the ICES oceanographic databank. He stressed that free and open exchange of data is encouraged, but restrictions placed on the data by their collectors are respected.'</t>
   </si>
   <si>
@@ -186,33 +144,6 @@
     <t>ICES Delegates adopt new data policy</t>
   </si>
   <si>
-    <t>Working Group on Data and Information Management</t>
-  </si>
-  <si>
-    <t>Data and Information Group</t>
-  </si>
-  <si>
-    <t>Study Group on Management of Integrated Data</t>
-  </si>
-  <si>
-    <t>2004/01/01</t>
-  </si>
-  <si>
-    <t>2007/01/01</t>
-  </si>
-  <si>
-    <t>2013/01/01</t>
-  </si>
-  <si>
-    <t>1994/01/01</t>
-  </si>
-  <si>
-    <t>Working Group on Marine Data Management (WGMDM) formed</t>
-  </si>
-  <si>
-    <t>Working Group on Marine Data Management</t>
-  </si>
-  <si>
     <t>Study Group on Management of Integrated Data (SGMID) formed</t>
   </si>
   <si>
@@ -246,9 +177,6 @@
     <t>Inaugural meeting of ICES</t>
   </si>
   <si>
-    <t>The Inaugural Meeting of ICES was held on 22 July 1902 in Copenhagen. The participants were: Denmark, Finland, Germany, The Netherlands, Norway, Sweden, Russia and United Kingdom.</t>
-  </si>
-  <si>
     <t>https://www.ices.dk/about-ICES/who-we-are/Pages/Our-history.aspx</t>
   </si>
   <si>
@@ -303,50 +231,159 @@
     <t>Lithuania joins ICES</t>
   </si>
   <si>
-    <t>1902/07/22</t>
-  </si>
-  <si>
-    <t>1903/01/01</t>
-  </si>
-  <si>
-    <t>1912/01/01</t>
-  </si>
-  <si>
-    <t>1920/01/01</t>
-  </si>
-  <si>
-    <t>1922/01/01</t>
-  </si>
-  <si>
-    <t>1923/01/01</t>
-  </si>
-  <si>
-    <t>1924/01/01</t>
-  </si>
-  <si>
-    <t>1925/01/01</t>
-  </si>
-  <si>
-    <t>1938/01/01</t>
-  </si>
-  <si>
-    <t>1964/09/12</t>
-  </si>
-  <si>
-    <t>1967/01/01</t>
-  </si>
-  <si>
-    <t>2002/10/04</t>
-  </si>
-  <si>
-    <t>2006/01/01</t>
+    <t>Sub-Committee for Mechanizing the Index of Hydrographic Data</t>
+  </si>
+  <si>
+    <t>Sub-Committee for Mechanizing the Index of Hydrographic Data formed</t>
+  </si>
+  <si>
+    <t>Sub-Committee for Automatic Data Processing</t>
+  </si>
+  <si>
+    <t>Sub-Committee for Automatic Data Processing formed from Sub-Committee for Mechanizing the Index of Hydrographic Data</t>
+  </si>
+  <si>
+    <t>Working Group on the Development of Marine Data Systems</t>
+  </si>
+  <si>
+    <t>Working Group on the Development of Marine Data Systems formed from Sub-Committee on Automatic Data Processing</t>
+  </si>
+  <si>
+    <t>Working Group on Marine Data Management (WGMDM) formed from the Working Group on the Development of Marine Data Systems</t>
+  </si>
+  <si>
+    <t>Working Group on Data Collection and Processing In Fish Capture Research</t>
+  </si>
+  <si>
+    <t>Working Group on Data Collection and Processing In Fish Capture Research formed to prepare a plan for managing data from experimental work.</t>
+  </si>
+  <si>
+    <t>Working Group on Eventual Establishment of an ICES ADP (Automatic Data Processing) System for Fishery Statistics formed</t>
+  </si>
+  <si>
+    <t>Planning Group on Commercial Catch, Discards and Biological Sampling formed</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/community/pages/pgccdbs-doc-repository.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning Group on Data Needs for Assessments and Advice formed from the Planning Group on Commercial Catch, Discards and Biological Sampling </t>
+  </si>
+  <si>
+    <t>Working Group on Acoustic Trawl Data Portal Governance formed</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/community/groups/Pages/WGacousticgov.aspx</t>
+  </si>
+  <si>
+    <t>Working Group on DATRAS Governance formed</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/community/groups/Pages/WGDG.aspx</t>
+  </si>
+  <si>
+    <t>Working Group for the Joint Cetacean Data Programme formed</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/community/groups/Pages/WGjcdp.aspx</t>
+  </si>
+  <si>
+    <t>Working Group on Governance of the Regional Database &amp; Estimation System is formed (under its original name of Steering Committee for Regional Databases)</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/community/groups/Pages/WGRDBESGOV.aspx</t>
+  </si>
+  <si>
+    <t>Working Group on Spatial Fisheries Data Governance formed</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/community/groups/Pages/WGSFDGOV.aspx</t>
+  </si>
+  <si>
+    <t>Working Group on SmartDots Governance formed</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/community/groups/Pages/WGSMART.aspx</t>
+  </si>
+  <si>
+    <t>Working Group on ICES Transparent Assessment Framework Governance formed</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/community/groups/Pages/WGTAFGOV.aspx</t>
+  </si>
+  <si>
+    <t>Working Group on Egg and Larvae and Fecundity and Atresia Database Governance formed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ices.dk/community/groups/Pages/WGELFADG.aspx </t>
+  </si>
+  <si>
+    <t>Working Group on Oceanographic Data Governance formed</t>
+  </si>
+  <si>
+    <t>The Inaugural Meeting of ICES was held on 22 July 1902 in Copenhagen.  The participants were: Denmark, Finland, Germany, The Netherlands, Norway, Sweden, Russia and United Kingdom.</t>
+  </si>
+  <si>
+    <t>PGCCDBS</t>
+  </si>
+  <si>
+    <t>SGMID</t>
+  </si>
+  <si>
+    <t>WGDIM</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>PGDATA</t>
+  </si>
+  <si>
+    <t>WGAcousticGov</t>
+  </si>
+  <si>
+    <t>WGDG</t>
+  </si>
+  <si>
+    <t>WGJCDP</t>
+  </si>
+  <si>
+    <t>WGRDBESGOV</t>
+  </si>
+  <si>
+    <t>WGSFDGOV</t>
+  </si>
+  <si>
+    <t>WGSMART</t>
+  </si>
+  <si>
+    <t>WGTAFGOV</t>
+  </si>
+  <si>
+    <t>WGELFADG</t>
+  </si>
+  <si>
+    <t>WGOceanDataGov</t>
+  </si>
+  <si>
+    <t>WGMDM</t>
+  </si>
+  <si>
+    <t>Working Group on Eventual Establishment of an ICES ADP System for Fishery Statistics</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/community/groups/Pages/DIG.aspx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy/m/d"/>
+  </numFmts>
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +517,49 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -823,13 +903,34 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1151,15 +1252,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="57.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="43.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" style="1" customWidth="1"/>
@@ -1174,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1190,622 +1291,1014 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6">
+        <v>32143</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <v>34471</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6">
+        <v>34578</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6">
+        <v>34599</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6">
+        <v>36983</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6">
+        <v>38077</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6">
+        <v>38596</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6">
+        <v>38453</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6">
+        <v>38596</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8">
+        <v>38644</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6">
+        <v>41052</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="8">
+        <v>41206</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6">
+        <v>42513</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="6">
+        <v>44334</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="6">
+        <v>45717</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6">
+        <v>20821</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6">
+        <v>23377</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6">
+        <v>24838</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6">
+        <v>25569</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6">
+        <v>26299</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6">
+        <v>26299</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="6">
+        <v>37257</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6">
+        <v>37987</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="6">
+        <v>39083</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="6">
+        <v>41275</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="14">
+        <v>42005</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="14">
+        <v>43831</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="14">
+        <v>43466</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="14">
+        <v>44562</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="14">
+        <v>40544</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="14">
+        <v>43831</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="14">
+        <v>43466</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="14">
+        <v>43831</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="14">
+        <v>44927</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="14">
+        <v>45778</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="14">
+        <v>934</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="14">
+        <v>1097</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="14">
+        <v>4384</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="14">
+        <v>7306</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="14">
+        <v>8037</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="14">
+        <v>8402</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="14">
+        <v>8767</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="14">
+        <v>9133</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="14">
+        <v>13881</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="14">
+        <v>23632</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="14">
+        <v>24473</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D48" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="E48" s="14">
+        <v>37533</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E49" s="14">
+        <v>38718</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C25:D25"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D28" r:id="rId15"/>
+    <hyperlink ref="D29" r:id="rId16"/>
+    <hyperlink ref="D30" r:id="rId17"/>
+    <hyperlink ref="D31" r:id="rId18"/>
+    <hyperlink ref="D32" r:id="rId19"/>
+    <hyperlink ref="D33" r:id="rId20"/>
+    <hyperlink ref="D34" r:id="rId21"/>
+    <hyperlink ref="D46" r:id="rId22"/>
+    <hyperlink ref="D48" r:id="rId23"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[DIGTimeline_data_1.xlsx]Types!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G49</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/DIGTimeline_data.xlsx
+++ b/data/DIGTimeline_data.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="DIGTimeline_data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -147,9 +150,6 @@
     <t>Study Group on Management of Integrated Data (SGMID) formed</t>
   </si>
   <si>
-    <t>WGMDM and SGDIM merge into Working Group on Data and Information Management (WGDIM)</t>
-  </si>
-  <si>
     <t>WGDIM changes to Data and Information Group (DIG)</t>
   </si>
   <si>
@@ -373,6 +373,15 @@
   </si>
   <si>
     <t>https://www.ices.dk/community/groups/Pages/DIG.aspx</t>
+  </si>
+  <si>
+    <t>keyEvent</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>WGMDM and SGMID merge into Working Group on Data and Information Management (WGDIM)</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,9 +565,15 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -743,7 +758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -858,8 +873,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -902,37 +932,42 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -970,6 +1005,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -987,6 +1023,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Types"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1252,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1267,7 +1316,7 @@
     <col min="6" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1289,972 +1338,1050 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="H1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8">
+        <v>32143</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>34471</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8">
+        <v>34578</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8">
+        <v>34599</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8">
+        <v>36983</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
-        <v>32143</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="3" t="s">
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8">
+        <v>38077</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8">
+        <v>38596</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8">
+        <v>38453</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8">
+        <v>38596</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="10">
+        <v>38644</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="8">
+        <v>41052</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="10">
+        <v>41206</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6">
-        <v>34471</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="3" t="s">
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8">
+        <v>42513</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="8">
+        <v>44334</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="8">
+        <v>45717</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8">
+        <v>20821</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8">
+        <v>23377</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="8">
+        <v>24838</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="8">
+        <v>25569</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="8">
+        <v>26299</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="8">
+        <v>26299</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="8">
+        <v>37257</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="8">
+        <v>37987</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="8">
+        <v>39083</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="8">
+        <v>41275</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="12">
+        <v>42005</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="12">
+        <v>43831</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="12">
+        <v>43466</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="12">
+        <v>44562</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="12">
+        <v>40544</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="12">
+        <v>43831</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="12">
+        <v>43466</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="12">
+        <v>43831</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="12">
+        <v>44927</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="12">
+        <v>45778</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="12">
+        <v>934</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1097</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="12">
+        <v>4384</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="12">
+        <v>7306</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="12">
+        <v>8037</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="12">
+        <v>8402</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="12">
+        <v>8767</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="12">
+        <v>9133</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="12">
+        <v>13881</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6">
-        <v>34578</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6">
-        <v>34599</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6">
-        <v>36983</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6">
-        <v>38077</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="12">
+        <v>23632</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6">
-        <v>38596</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6">
-        <v>38453</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="6">
-        <v>38596</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B47" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="12">
+        <v>24473</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="18"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="8">
-        <v>38644</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="6">
-        <v>41052</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B48" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="12">
+        <v>37533</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="8">
-        <v>41206</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="6">
-        <v>42513</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="6">
-        <v>44334</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6">
-        <v>45717</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6">
-        <v>20821</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6">
-        <v>23377</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6">
-        <v>24838</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6">
-        <v>25569</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6">
-        <v>26299</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6">
-        <v>26299</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="6">
-        <v>37257</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6">
-        <v>37987</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="6">
-        <v>39083</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="6">
-        <v>41275</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="14">
-        <v>42005</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="14">
-        <v>43831</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="14">
-        <v>43466</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="14">
-        <v>44562</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="14">
-        <v>40544</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="14">
-        <v>43831</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="14">
-        <v>43466</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="14">
-        <v>43831</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="14">
-        <v>44927</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="14">
-        <v>45778</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="12" t="s">
+      <c r="B49" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="12" t="s">
+      <c r="E49" s="12">
+        <v>38718</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="14">
-        <v>934</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="14">
-        <v>1097</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="14">
-        <v>4384</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="14">
-        <v>7306</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="14">
-        <v>8037</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="14">
-        <v>8402</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="14">
-        <v>8767</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="14">
-        <v>9133</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="14">
-        <v>13881</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="14">
-        <v>23632</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="14">
-        <v>24473</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="14">
-        <v>37533</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="14">
-        <v>38718</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="H49" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
